--- a/Seguimiento PIG.xlsx
+++ b/Seguimiento PIG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Virtual\CodoACodo\home_deco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Virtual\CodoACodo\proyecto_cac\CaCDjango\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4475CE6-8AFC-487F-A5ED-726260483AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1A098-5992-457C-B5B3-28423E720875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C346744F-2D11-4EFC-A4B7-17C762B581C8}"/>
   </bookViews>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,19 +235,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -281,7 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,31 +294,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,7 +641,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +669,7 @@
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -749,55 +730,55 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
